--- a/Sistema/Tabela de Levels.xlsx
+++ b/Sistema/Tabela de Levels.xlsx
@@ -176,7 +176,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,10 +214,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -305,10 +301,10 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J38" activeCellId="0" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.6"/>
@@ -331,11 +327,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C2" s="5" t="n">
         <f aca="false">SUM($B$2:B2)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,11 +339,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C3" s="8" t="n">
         <f aca="false">SUM($B$2:B3)</f>
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -355,11 +351,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C4" s="5" t="n">
         <f aca="false">SUM($B$2:B4)</f>
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -367,11 +363,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C5" s="8" t="n">
         <f aca="false">SUM($B$2:B5)</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -379,11 +375,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C6" s="5" t="n">
         <f aca="false">SUM($B$2:B6)</f>
-        <v>1500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,11 +387,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C7" s="8" t="n">
         <f aca="false">SUM($B$2:B7)</f>
-        <v>2100</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -403,11 +399,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="C8" s="5" t="n">
         <f aca="false">SUM($B$2:B8)</f>
-        <v>2800</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,11 +411,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="C9" s="8" t="n">
         <f aca="false">SUM($B$2:B9)</f>
-        <v>3600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -427,11 +423,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="C10" s="5" t="n">
         <f aca="false">SUM($B$2:B10)</f>
-        <v>4500</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -439,11 +435,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C11" s="8" t="n">
         <f aca="false">SUM($B$2:B11)</f>
-        <v>5500</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -451,11 +447,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="C12" s="5" t="n">
         <f aca="false">SUM($B$2:B12)</f>
-        <v>6600</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -463,11 +459,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="C13" s="8" t="n">
         <f aca="false">SUM($B$2:B13)</f>
-        <v>7800</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,11 +471,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="C14" s="5" t="n">
         <f aca="false">SUM($B$2:B14)</f>
-        <v>9100</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,11 +483,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="C15" s="8" t="n">
         <f aca="false">SUM($B$2:B15)</f>
-        <v>10500</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,11 +495,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="C16" s="5" t="n">
         <f aca="false">SUM($B$2:B16)</f>
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -511,11 +507,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="C17" s="8" t="n">
         <f aca="false">SUM($B$2:B17)</f>
-        <v>13600</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,11 +519,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>1700</v>
+        <v>850</v>
       </c>
       <c r="C18" s="5" t="n">
         <f aca="false">SUM($B$2:B18)</f>
-        <v>15300</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -535,11 +531,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="C19" s="8" t="n">
         <f aca="false">SUM($B$2:B19)</f>
-        <v>17100</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -547,11 +543,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>1900</v>
+        <v>950</v>
       </c>
       <c r="C20" s="5" t="n">
         <f aca="false">SUM($B$2:B20)</f>
-        <v>19000</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,11 +555,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C21" s="8" t="n">
         <f aca="false">SUM($B$2:B21)</f>
-        <v>21000</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,11 +567,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>2100</v>
+        <v>1050</v>
       </c>
       <c r="C22" s="5" t="n">
         <f aca="false">SUM($B$2:B22)</f>
-        <v>23100</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,11 +579,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="n">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="C23" s="8" t="n">
         <f aca="false">SUM($B$2:B23)</f>
-        <v>25300</v>
+        <v>12650</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,11 +591,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>2300</v>
+        <v>1150</v>
       </c>
       <c r="C24" s="5" t="n">
         <f aca="false">SUM($B$2:B24)</f>
-        <v>27600</v>
+        <v>13800</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -607,11 +603,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="C25" s="8" t="n">
         <f aca="false">SUM($B$2:B25)</f>
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,11 +615,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="C26" s="5" t="n">
         <f aca="false">SUM($B$2:B26)</f>
-        <v>32500</v>
+        <v>16250</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,11 +627,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="n">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="C27" s="8" t="n">
         <f aca="false">SUM($B$2:B27)</f>
-        <v>35100</v>
+        <v>17550</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,11 +639,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>2700</v>
+        <v>1350</v>
       </c>
       <c r="C28" s="5" t="n">
         <f aca="false">SUM($B$2:B28)</f>
-        <v>37800</v>
+        <v>18900</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,11 +651,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="C29" s="8" t="n">
         <f aca="false">SUM($B$2:B29)</f>
-        <v>40600</v>
+        <v>20300</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,23 +663,23 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>2900</v>
+        <v>1450</v>
       </c>
       <c r="C30" s="5" t="n">
         <f aca="false">SUM($B$2:B30)</f>
-        <v>43500</v>
+        <v>21750</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C31" s="11" t="n">
+      <c r="B31" s="7" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C31" s="10" t="n">
         <f aca="false">SUM($B$2:B31)</f>
-        <v>46500</v>
+        <v>23250</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema/Tabela de Levels.xlsx
+++ b/Sistema/Tabela de Levels.xlsx
@@ -1,17 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fazer-backup\projetos\dream-mountain-remastered\Sistema\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2851A9CA-C00E-4925-92D5-21AFA824E402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -22,45 +37,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">Levels</t>
+    <t>Levels</t>
   </si>
   <si>
-    <t xml:space="preserve">XP para upar de nível</t>
+    <t>Experiência Necessária</t>
   </si>
   <si>
-    <t xml:space="preserve">XP total</t>
+    <t>Experiência Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -91,14 +86,14 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF666666"/>
       </left>
@@ -113,7 +108,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF666666"/>
@@ -126,7 +121,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF666666"/>
       </left>
@@ -139,7 +134,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF666666"/>
@@ -151,85 +146,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -288,405 +229,712 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J38" activeCellId="0" sqref="J38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.51"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="2">
         <v>50</v>
       </c>
-      <c r="C2" s="5" t="n">
-        <f aca="false">SUM($B$2:B2)</f>
+      <c r="C2" s="3">
+        <f>SUM($B$2:B2)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="5">
         <v>100</v>
       </c>
-      <c r="C3" s="8" t="n">
-        <f aca="false">SUM($B$2:B3)</f>
+      <c r="C3" s="6">
+        <f>SUM($B$2:B3)</f>
         <v>150</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="2">
         <v>150</v>
       </c>
-      <c r="C4" s="5" t="n">
-        <f aca="false">SUM($B$2:B4)</f>
+      <c r="C4" s="3">
+        <f>SUM($B$2:B4)</f>
         <v>300</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="5">
         <v>200</v>
       </c>
-      <c r="C5" s="8" t="n">
-        <f aca="false">SUM($B$2:B5)</f>
+      <c r="C5" s="6">
+        <f>SUM($B$2:B5)</f>
         <v>500</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="2">
         <v>250</v>
       </c>
-      <c r="C6" s="5" t="n">
-        <f aca="false">SUM($B$2:B6)</f>
+      <c r="C6" s="3">
+        <f>SUM($B$2:B6)</f>
         <v>750</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="5">
         <v>300</v>
       </c>
-      <c r="C7" s="8" t="n">
-        <f aca="false">SUM($B$2:B7)</f>
+      <c r="C7" s="6">
+        <f>SUM($B$2:B7)</f>
         <v>1050</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="2">
         <v>350</v>
       </c>
-      <c r="C8" s="5" t="n">
-        <f aca="false">SUM($B$2:B8)</f>
+      <c r="C8" s="3">
+        <f>SUM($B$2:B8)</f>
         <v>1400</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="5">
         <v>400</v>
       </c>
-      <c r="C9" s="8" t="n">
-        <f aca="false">SUM($B$2:B9)</f>
+      <c r="C9" s="6">
+        <f>SUM($B$2:B9)</f>
         <v>1800</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="2">
         <v>450</v>
       </c>
-      <c r="C10" s="5" t="n">
-        <f aca="false">SUM($B$2:B10)</f>
+      <c r="C10" s="3">
+        <f>SUM($B$2:B10)</f>
         <v>2250</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="5">
         <v>500</v>
       </c>
-      <c r="C11" s="8" t="n">
-        <f aca="false">SUM($B$2:B11)</f>
+      <c r="C11" s="6">
+        <f>SUM($B$2:B11)</f>
         <v>2750</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="2">
         <v>550</v>
       </c>
-      <c r="C12" s="5" t="n">
-        <f aca="false">SUM($B$2:B12)</f>
+      <c r="C12" s="3">
+        <f>SUM($B$2:B12)</f>
         <v>3300</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="5">
         <v>600</v>
       </c>
-      <c r="C13" s="8" t="n">
-        <f aca="false">SUM($B$2:B13)</f>
+      <c r="C13" s="6">
+        <f>SUM($B$2:B13)</f>
         <v>3900</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="2">
         <v>650</v>
       </c>
-      <c r="C14" s="5" t="n">
-        <f aca="false">SUM($B$2:B14)</f>
+      <c r="C14" s="3">
+        <f>SUM($B$2:B14)</f>
         <v>4550</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="5">
         <v>700</v>
       </c>
-      <c r="C15" s="8" t="n">
-        <f aca="false">SUM($B$2:B15)</f>
+      <c r="C15" s="6">
+        <f>SUM($B$2:B15)</f>
         <v>5250</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="2">
         <v>750</v>
       </c>
-      <c r="C16" s="5" t="n">
-        <f aca="false">SUM($B$2:B16)</f>
+      <c r="C16" s="3">
+        <f>SUM($B$2:B16)</f>
         <v>6000</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="5">
         <v>800</v>
       </c>
-      <c r="C17" s="8" t="n">
-        <f aca="false">SUM($B$2:B17)</f>
+      <c r="C17" s="6">
+        <f>SUM($B$2:B17)</f>
         <v>6800</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="2">
         <v>850</v>
       </c>
-      <c r="C18" s="5" t="n">
-        <f aca="false">SUM($B$2:B18)</f>
+      <c r="C18" s="3">
+        <f>SUM($B$2:B18)</f>
         <v>7650</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="n">
+      <c r="B19" s="5">
         <v>900</v>
       </c>
-      <c r="C19" s="8" t="n">
-        <f aca="false">SUM($B$2:B19)</f>
+      <c r="C19" s="6">
+        <f>SUM($B$2:B19)</f>
         <v>8550</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="2">
         <v>950</v>
       </c>
-      <c r="C20" s="5" t="n">
-        <f aca="false">SUM($B$2:B20)</f>
+      <c r="C20" s="3">
+        <f>SUM($B$2:B20)</f>
         <v>9500</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="n">
+      <c r="B21" s="5">
         <v>1000</v>
       </c>
-      <c r="C21" s="8" t="n">
-        <f aca="false">SUM($B$2:B21)</f>
+      <c r="C21" s="6">
+        <f>SUM($B$2:B21)</f>
         <v>10500</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="2">
         <v>1050</v>
       </c>
-      <c r="C22" s="5" t="n">
-        <f aca="false">SUM($B$2:B22)</f>
+      <c r="C22" s="3">
+        <f>SUM($B$2:B22)</f>
         <v>11550</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="n">
+      <c r="B23" s="5">
         <v>1100</v>
       </c>
-      <c r="C23" s="8" t="n">
-        <f aca="false">SUM($B$2:B23)</f>
+      <c r="C23" s="6">
+        <f>SUM($B$2:B23)</f>
         <v>12650</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="2">
         <v>1150</v>
       </c>
-      <c r="C24" s="5" t="n">
-        <f aca="false">SUM($B$2:B24)</f>
+      <c r="C24" s="3">
+        <f>SUM($B$2:B24)</f>
         <v>13800</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="n">
+      <c r="B25" s="5">
         <v>1200</v>
       </c>
-      <c r="C25" s="8" t="n">
-        <f aca="false">SUM($B$2:B25)</f>
+      <c r="C25" s="6">
+        <f>SUM($B$2:B25)</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="2">
         <v>1250</v>
       </c>
-      <c r="C26" s="5" t="n">
-        <f aca="false">SUM($B$2:B26)</f>
+      <c r="C26" s="3">
+        <f>SUM($B$2:B26)</f>
         <v>16250</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="n">
+      <c r="B27" s="5">
         <v>1300</v>
       </c>
-      <c r="C27" s="8" t="n">
-        <f aca="false">SUM($B$2:B27)</f>
+      <c r="C27" s="6">
+        <f>SUM($B$2:B27)</f>
         <v>17550</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="2">
         <v>1350</v>
       </c>
-      <c r="C28" s="5" t="n">
-        <f aca="false">SUM($B$2:B28)</f>
+      <c r="C28" s="3">
+        <f>SUM($B$2:B28)</f>
         <v>18900</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="n">
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="n">
+      <c r="B29" s="5">
         <v>1400</v>
       </c>
-      <c r="C29" s="8" t="n">
-        <f aca="false">SUM($B$2:B29)</f>
+      <c r="C29" s="6">
+        <f>SUM($B$2:B29)</f>
         <v>20300</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="2">
         <v>1450</v>
       </c>
-      <c r="C30" s="5" t="n">
-        <f aca="false">SUM($B$2:B30)</f>
+      <c r="C30" s="3">
+        <f>SUM($B$2:B30)</f>
         <v>21750</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="n">
+      <c r="B31" s="5">
         <v>1500</v>
       </c>
-      <c r="C31" s="10" t="n">
-        <f aca="false">SUM($B$2:B31)</f>
+      <c r="C31" s="8">
+        <f>SUM($B$2:B31)</f>
         <v>23250</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/Sistema/Tabela de Levels.xlsx
+++ b/Sistema/Tabela de Levels.xlsx
@@ -176,7 +176,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -197,7 +197,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -214,10 +214,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -301,10 +297,10 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J38" activeCellId="0" sqref="J38"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.6"/>
@@ -330,8 +326,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="5" t="n">
-        <f aca="false">SUM($B$2:B2)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -342,8 +337,8 @@
         <v>100</v>
       </c>
       <c r="C3" s="8" t="n">
-        <f aca="false">SUM($B$2:B3)</f>
-        <v>150</v>
+        <f aca="false">SUM($B$2:B2)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -354,8 +349,8 @@
         <v>150</v>
       </c>
       <c r="C4" s="5" t="n">
-        <f aca="false">SUM($B$2:B4)</f>
-        <v>300</v>
+        <f aca="false">SUM($B$2:B3)</f>
+        <v>150</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -366,8 +361,8 @@
         <v>200</v>
       </c>
       <c r="C5" s="8" t="n">
-        <f aca="false">SUM($B$2:B5)</f>
-        <v>500</v>
+        <f aca="false">SUM($B$2:B4)</f>
+        <v>300</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -378,8 +373,8 @@
         <v>250</v>
       </c>
       <c r="C6" s="5" t="n">
-        <f aca="false">SUM($B$2:B6)</f>
-        <v>750</v>
+        <f aca="false">SUM($B$2:B5)</f>
+        <v>500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -390,8 +385,8 @@
         <v>300</v>
       </c>
       <c r="C7" s="8" t="n">
-        <f aca="false">SUM($B$2:B7)</f>
-        <v>1050</v>
+        <f aca="false">SUM($B$2:B6)</f>
+        <v>750</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -402,8 +397,8 @@
         <v>350</v>
       </c>
       <c r="C8" s="5" t="n">
-        <f aca="false">SUM($B$2:B8)</f>
-        <v>1400</v>
+        <f aca="false">SUM($B$2:B7)</f>
+        <v>1050</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -414,8 +409,8 @@
         <v>400</v>
       </c>
       <c r="C9" s="8" t="n">
-        <f aca="false">SUM($B$2:B9)</f>
-        <v>1800</v>
+        <f aca="false">SUM($B$2:B8)</f>
+        <v>1400</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -426,8 +421,8 @@
         <v>450</v>
       </c>
       <c r="C10" s="5" t="n">
-        <f aca="false">SUM($B$2:B10)</f>
-        <v>2250</v>
+        <f aca="false">SUM($B$2:B9)</f>
+        <v>1800</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -438,8 +433,8 @@
         <v>500</v>
       </c>
       <c r="C11" s="8" t="n">
-        <f aca="false">SUM($B$2:B11)</f>
-        <v>2750</v>
+        <f aca="false">SUM($B$2:B10)</f>
+        <v>2250</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -450,8 +445,8 @@
         <v>550</v>
       </c>
       <c r="C12" s="5" t="n">
-        <f aca="false">SUM($B$2:B12)</f>
-        <v>3300</v>
+        <f aca="false">SUM($B$2:B11)</f>
+        <v>2750</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,8 +457,8 @@
         <v>600</v>
       </c>
       <c r="C13" s="8" t="n">
-        <f aca="false">SUM($B$2:B13)</f>
-        <v>3900</v>
+        <f aca="false">SUM($B$2:B12)</f>
+        <v>3300</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,8 +469,8 @@
         <v>650</v>
       </c>
       <c r="C14" s="5" t="n">
-        <f aca="false">SUM($B$2:B14)</f>
-        <v>4550</v>
+        <f aca="false">SUM($B$2:B13)</f>
+        <v>3900</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,8 +481,8 @@
         <v>700</v>
       </c>
       <c r="C15" s="8" t="n">
-        <f aca="false">SUM($B$2:B15)</f>
-        <v>5250</v>
+        <f aca="false">SUM($B$2:B14)</f>
+        <v>4550</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -498,8 +493,8 @@
         <v>750</v>
       </c>
       <c r="C16" s="5" t="n">
-        <f aca="false">SUM($B$2:B16)</f>
-        <v>6000</v>
+        <f aca="false">SUM($B$2:B15)</f>
+        <v>5250</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -510,8 +505,8 @@
         <v>800</v>
       </c>
       <c r="C17" s="8" t="n">
-        <f aca="false">SUM($B$2:B17)</f>
-        <v>6800</v>
+        <f aca="false">SUM($B$2:B16)</f>
+        <v>6000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,8 +517,8 @@
         <v>850</v>
       </c>
       <c r="C18" s="5" t="n">
-        <f aca="false">SUM($B$2:B18)</f>
-        <v>7650</v>
+        <f aca="false">SUM($B$2:B17)</f>
+        <v>6800</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,8 +529,8 @@
         <v>900</v>
       </c>
       <c r="C19" s="8" t="n">
-        <f aca="false">SUM($B$2:B19)</f>
-        <v>8550</v>
+        <f aca="false">SUM($B$2:B18)</f>
+        <v>7650</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,8 +541,8 @@
         <v>950</v>
       </c>
       <c r="C20" s="5" t="n">
-        <f aca="false">SUM($B$2:B20)</f>
-        <v>9500</v>
+        <f aca="false">SUM($B$2:B19)</f>
+        <v>8550</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,8 +553,8 @@
         <v>1000</v>
       </c>
       <c r="C21" s="8" t="n">
-        <f aca="false">SUM($B$2:B21)</f>
-        <v>10500</v>
+        <f aca="false">SUM($B$2:B20)</f>
+        <v>9500</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -570,8 +565,8 @@
         <v>1050</v>
       </c>
       <c r="C22" s="5" t="n">
-        <f aca="false">SUM($B$2:B22)</f>
-        <v>11550</v>
+        <f aca="false">SUM($B$2:B21)</f>
+        <v>10500</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,8 +577,8 @@
         <v>1100</v>
       </c>
       <c r="C23" s="8" t="n">
-        <f aca="false">SUM($B$2:B23)</f>
-        <v>12650</v>
+        <f aca="false">SUM($B$2:B22)</f>
+        <v>11550</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -594,8 +589,8 @@
         <v>1150</v>
       </c>
       <c r="C24" s="5" t="n">
-        <f aca="false">SUM($B$2:B24)</f>
-        <v>13800</v>
+        <f aca="false">SUM($B$2:B23)</f>
+        <v>12650</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,8 +601,8 @@
         <v>1200</v>
       </c>
       <c r="C25" s="8" t="n">
-        <f aca="false">SUM($B$2:B25)</f>
-        <v>15000</v>
+        <f aca="false">SUM($B$2:B24)</f>
+        <v>13800</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,8 +613,8 @@
         <v>1250</v>
       </c>
       <c r="C26" s="5" t="n">
-        <f aca="false">SUM($B$2:B26)</f>
-        <v>16250</v>
+        <f aca="false">SUM($B$2:B25)</f>
+        <v>15000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,8 +625,8 @@
         <v>1300</v>
       </c>
       <c r="C27" s="8" t="n">
-        <f aca="false">SUM($B$2:B27)</f>
-        <v>17550</v>
+        <f aca="false">SUM($B$2:B26)</f>
+        <v>16250</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -642,8 +637,8 @@
         <v>1350</v>
       </c>
       <c r="C28" s="5" t="n">
-        <f aca="false">SUM($B$2:B28)</f>
-        <v>18900</v>
+        <f aca="false">SUM($B$2:B27)</f>
+        <v>17550</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,8 +649,8 @@
         <v>1400</v>
       </c>
       <c r="C29" s="8" t="n">
-        <f aca="false">SUM($B$2:B29)</f>
-        <v>20300</v>
+        <f aca="false">SUM($B$2:B28)</f>
+        <v>18900</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -666,8 +661,8 @@
         <v>1450</v>
       </c>
       <c r="C30" s="5" t="n">
-        <f aca="false">SUM($B$2:B30)</f>
-        <v>21750</v>
+        <f aca="false">SUM($B$2:B29)</f>
+        <v>20300</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,9 +672,9 @@
       <c r="B31" s="7" t="n">
         <v>1500</v>
       </c>
-      <c r="C31" s="10" t="n">
-        <f aca="false">SUM($B$2:B31)</f>
-        <v>23250</v>
+      <c r="C31" s="8" t="n">
+        <f aca="false">SUM($B$2:B30)</f>
+        <v>21750</v>
       </c>
     </row>
   </sheetData>
